--- a/Documents/Aphelios_Obj.xlsx
+++ b/Documents/Aphelios_Obj.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03ad4a8e8f7310f3/project/GangsterHamster/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="10_ncr:8000_{51C1F0D6-2411-4FC2-A240-D0A0031372D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{820C8EA9-E0CD-4E01-969F-ED46710C1C7C}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="10_ncr:8000_{51C1F0D6-2411-4FC2-A240-D0A0031372D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C929BAC-22AB-4659-B559-26EFB70364AF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="89">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -442,6 +442,22 @@
 받으면 버튼이 눌리며, 버튼과 연결된
 오브젝트가 작동합니다.
 (ppt상 붉은 화살표로 표현)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2727,7 +2743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
@@ -3141,10 +3157,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C8A030F-A691-4A55-8AFD-7F71C677C5D4}">
-  <dimension ref="D3:P21"/>
+  <dimension ref="D2:P23"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3152,66 +3168,89 @@
     <col min="6" max="6" width="17.59765625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="4:16" x14ac:dyDescent="0.4">
+      <c r="F2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+    </row>
     <row r="3" spans="4:16" x14ac:dyDescent="0.4">
-      <c r="D3" t="s">
+      <c r="F3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="4:16" x14ac:dyDescent="0.4">
+      <c r="F4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="4:16" x14ac:dyDescent="0.4">
+      <c r="D5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="4:16" x14ac:dyDescent="0.4">
-      <c r="D4">
+    <row r="6" spans="4:16" x14ac:dyDescent="0.4">
+      <c r="D6">
         <v>1</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F6" t="s">
         <v>63</v>
-      </c>
-      <c r="G4" s="36">
-        <v>3</v>
-      </c>
-      <c r="H4" t="s">
-        <v>70</v>
-      </c>
-      <c r="K4" t="s">
-        <v>76</v>
-      </c>
-      <c r="L4" s="36">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>81</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="4:16" x14ac:dyDescent="0.4">
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" s="36">
-        <v>3</v>
-      </c>
-      <c r="H5" t="s">
-        <v>70</v>
-      </c>
-      <c r="K5" t="s">
-        <v>76</v>
-      </c>
-      <c r="L5" s="36">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
-        <v>81</v>
-      </c>
-      <c r="P5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="4:16" x14ac:dyDescent="0.4">
-      <c r="F6" t="s">
-        <v>65</v>
       </c>
       <c r="G6" s="36">
         <v>3</v>
@@ -3229,59 +3268,74 @@
         <v>81</v>
       </c>
       <c r="P6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="4:16" x14ac:dyDescent="0.4">
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="36">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="4:16" x14ac:dyDescent="0.4">
-      <c r="G7" s="36"/>
-      <c r="L7" s="36"/>
+      <c r="H7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" s="36">
+        <v>1</v>
+      </c>
       <c r="N7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P7">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="4:16" x14ac:dyDescent="0.4">
-      <c r="D8">
+      <c r="F8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="36">
         <v>3</v>
       </c>
-      <c r="F8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G8" s="36">
+      <c r="H8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K8" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" s="36">
         <v>1</v>
       </c>
-      <c r="K8" t="s">
-        <v>77</v>
-      </c>
-      <c r="L8" s="36">
-        <v>2</v>
-      </c>
       <c r="N8" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="P8">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="4:16" x14ac:dyDescent="0.4">
-      <c r="F9" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" s="36">
-        <v>1</v>
-      </c>
-      <c r="K9" t="s">
-        <v>77</v>
-      </c>
-      <c r="L9" s="36">
-        <v>2</v>
-      </c>
+      <c r="G9" s="36"/>
+      <c r="L9" s="36"/>
       <c r="N9" t="s">
         <v>82</v>
       </c>
+      <c r="P9">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="4:16" x14ac:dyDescent="0.4">
+      <c r="D10">
+        <v>3</v>
+      </c>
       <c r="F10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G10" s="36">
         <v>1</v>
@@ -3293,32 +3347,39 @@
         <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="4:16" x14ac:dyDescent="0.4">
-      <c r="E11" t="s">
-        <v>79</v>
-      </c>
       <c r="F11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G11" s="36">
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L11" s="36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="4:16" x14ac:dyDescent="0.4">
-      <c r="G12" s="36"/>
-      <c r="L12" s="36"/>
+      <c r="F12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="36">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>77</v>
+      </c>
+      <c r="L12" s="36">
+        <v>2</v>
+      </c>
       <c r="N12" t="s">
         <v>83</v>
       </c>
@@ -3328,62 +3389,94 @@
         <v>79</v>
       </c>
       <c r="F13" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="G13" s="36">
         <v>1</v>
       </c>
+      <c r="K13" t="s">
+        <v>78</v>
+      </c>
       <c r="L13" s="36">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="4:16" x14ac:dyDescent="0.4">
+      <c r="G14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="N14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="4:16" x14ac:dyDescent="0.4">
+      <c r="E15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="36">
+        <v>1</v>
+      </c>
+      <c r="L15" s="36">
         <v>3</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N15" t="s">
         <v>71</v>
       </c>
-      <c r="P13">
+      <c r="P15">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="4:16" x14ac:dyDescent="0.4">
-      <c r="E14" t="s">
+    <row r="16" spans="4:16" x14ac:dyDescent="0.4">
+      <c r="E16" t="s">
         <v>79</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F16" t="s">
         <v>67</v>
       </c>
-      <c r="G14" s="36">
+      <c r="G16" s="36">
         <v>1</v>
       </c>
-      <c r="L14" s="36">
+      <c r="L16" s="36">
         <v>0.5</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N16" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="4:16" x14ac:dyDescent="0.4">
-      <c r="N15" t="s">
+    <row r="17" spans="6:14" x14ac:dyDescent="0.4">
+      <c r="N17" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="4:16" x14ac:dyDescent="0.4">
-      <c r="F16" t="s">
+    <row r="18" spans="6:14" x14ac:dyDescent="0.4">
+      <c r="F18" t="s">
         <v>75</v>
       </c>
-      <c r="G16">
-        <f>SUM(G4:G14)</f>
+      <c r="G18">
+        <f>SUM(G6:G16)</f>
         <v>15</v>
       </c>
-      <c r="N16" t="s">
+      <c r="N18" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F20" t="s">
+    <row r="20" spans="6:14" x14ac:dyDescent="0.4">
+      <c r="G20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="6:14" x14ac:dyDescent="0.4">
+      <c r="F22" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F21" t="s">
+    <row r="23" spans="6:14" x14ac:dyDescent="0.4">
+      <c r="F23" t="s">
         <v>69</v>
       </c>
     </row>

--- a/Documents/Aphelios_Obj.xlsx
+++ b/Documents/Aphelios_Obj.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03ad4a8e8f7310f3/project/GangsterHamster/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="10_ncr:8000_{51C1F0D6-2411-4FC2-A240-D0A0031372D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C929BAC-22AB-4659-B559-26EFB70364AF}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="10_ncr:8000_{51C1F0D6-2411-4FC2-A240-D0A0031372D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{677B61FF-9581-4642-B036-E71736E82AF5}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="100">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -458,6 +458,50 @@
   </si>
   <si>
     <t>0-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진짜 기초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우주에 와서 적응을 하고 있는 실험체에게 적응 훈련을 시키는 스토리를 가짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이후 산소결핍의 연출 등장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -603,7 +647,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -737,13 +781,50 @@
         <color indexed="64"/>
       </diagonal>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -863,6 +944,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3157,326 +3250,448 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C8A030F-A691-4A55-8AFD-7F71C677C5D4}">
-  <dimension ref="D2:P23"/>
+  <dimension ref="A3:T53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="1" max="1" width="16.09765625" customWidth="1"/>
     <col min="6" max="6" width="17.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:16" x14ac:dyDescent="0.4">
-      <c r="F2" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" t="s">
+        <v>93</v>
+      </c>
+      <c r="K5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B6" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B9" s="41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B12" s="41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="J32" t="s">
         <v>88</v>
       </c>
-      <c r="G2" t="s">
+      <c r="K32" t="s">
         <v>81</v>
       </c>
-      <c r="I2">
+      <c r="M32">
         <v>1</v>
       </c>
-      <c r="J2">
+      <c r="N32">
         <v>1</v>
       </c>
-      <c r="K2">
+      <c r="O32">
         <v>1</v>
       </c>
-      <c r="L2">
+      <c r="P32">
         <v>1</v>
       </c>
-      <c r="M2">
+      <c r="Q32">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="4:16" x14ac:dyDescent="0.4">
-      <c r="F3" t="s">
+    <row r="33" spans="8:20" x14ac:dyDescent="0.4">
+      <c r="J33" t="s">
         <v>86</v>
       </c>
-      <c r="G3" t="s">
+      <c r="K33" t="s">
         <v>87</v>
       </c>
-      <c r="I3">
+      <c r="M33">
         <v>1</v>
       </c>
-      <c r="J3">
+      <c r="N33">
         <v>1</v>
       </c>
-      <c r="K3">
+      <c r="O33">
         <v>1</v>
       </c>
-      <c r="L3">
+      <c r="P33">
         <v>1</v>
       </c>
-      <c r="M3">
+      <c r="Q33">
         <v>1</v>
       </c>
-      <c r="O3">
+      <c r="S33">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="4:16" x14ac:dyDescent="0.4">
-      <c r="F4" t="s">
+    <row r="34" spans="8:20" x14ac:dyDescent="0.4">
+      <c r="J34" t="s">
         <v>85</v>
       </c>
-      <c r="G4" t="s">
+      <c r="K34" t="s">
         <v>27</v>
       </c>
-      <c r="I4">
+      <c r="M34">
         <v>1</v>
       </c>
-      <c r="J4">
+      <c r="N34">
         <v>1</v>
       </c>
-      <c r="K4">
+      <c r="O34">
         <v>1</v>
       </c>
-      <c r="L4">
+      <c r="P34">
         <v>1</v>
       </c>
-      <c r="M4">
+      <c r="Q34">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="4:16" x14ac:dyDescent="0.4">
-      <c r="D5" t="s">
+    <row r="35" spans="8:20" x14ac:dyDescent="0.4">
+      <c r="H35" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="4:16" x14ac:dyDescent="0.4">
-      <c r="D6">
+    <row r="36" spans="8:20" x14ac:dyDescent="0.4">
+      <c r="H36">
         <v>1</v>
       </c>
-      <c r="F6" t="s">
+      <c r="J36" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="36">
+      <c r="K36" s="36">
         <v>3</v>
       </c>
-      <c r="H6" t="s">
+      <c r="L36" t="s">
         <v>70</v>
       </c>
-      <c r="K6" t="s">
+      <c r="O36" t="s">
         <v>76</v>
       </c>
-      <c r="L6" s="36">
+      <c r="P36" s="36">
         <v>1</v>
       </c>
-      <c r="N6" t="s">
+      <c r="R36" t="s">
         <v>81</v>
       </c>
-      <c r="P6">
+      <c r="T36">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="4:16" x14ac:dyDescent="0.4">
-      <c r="D7">
+    <row r="37" spans="8:20" x14ac:dyDescent="0.4">
+      <c r="H37">
         <v>2</v>
       </c>
-      <c r="F7" t="s">
+      <c r="J37" t="s">
         <v>64</v>
       </c>
-      <c r="G7" s="36">
+      <c r="K37" s="36">
         <v>3</v>
       </c>
-      <c r="H7" t="s">
+      <c r="L37" t="s">
         <v>70</v>
       </c>
-      <c r="K7" t="s">
+      <c r="O37" t="s">
         <v>76</v>
       </c>
-      <c r="L7" s="36">
+      <c r="P37" s="36">
         <v>1</v>
       </c>
-      <c r="N7" t="s">
+      <c r="R37" t="s">
         <v>81</v>
       </c>
-      <c r="P7">
+      <c r="T37">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="4:16" x14ac:dyDescent="0.4">
-      <c r="F8" t="s">
+    <row r="38" spans="8:20" x14ac:dyDescent="0.4">
+      <c r="J38" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="36">
+      <c r="K38" s="36">
         <v>3</v>
       </c>
-      <c r="H8" t="s">
+      <c r="L38" t="s">
         <v>70</v>
       </c>
-      <c r="K8" t="s">
+      <c r="O38" t="s">
         <v>76</v>
       </c>
-      <c r="L8" s="36">
+      <c r="P38" s="36">
         <v>1</v>
       </c>
-      <c r="N8" t="s">
+      <c r="R38" t="s">
         <v>81</v>
       </c>
-      <c r="P8">
+      <c r="T38">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="4:16" x14ac:dyDescent="0.4">
-      <c r="G9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="N9" t="s">
+    <row r="39" spans="8:20" x14ac:dyDescent="0.4">
+      <c r="K39" s="36"/>
+      <c r="P39" s="36"/>
+      <c r="R39" t="s">
         <v>82</v>
       </c>
-      <c r="P9">
+      <c r="T39">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="4:16" x14ac:dyDescent="0.4">
-      <c r="D10">
+    <row r="40" spans="8:20" x14ac:dyDescent="0.4">
+      <c r="H40">
         <v>3</v>
       </c>
-      <c r="F10" t="s">
+      <c r="J40" t="s">
         <v>71</v>
       </c>
-      <c r="G10" s="36">
+      <c r="K40" s="36">
         <v>1</v>
       </c>
-      <c r="K10" t="s">
+      <c r="O40" t="s">
         <v>77</v>
       </c>
-      <c r="L10" s="36">
+      <c r="P40" s="36">
         <v>2</v>
       </c>
-      <c r="N10" t="s">
+      <c r="R40" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="4:16" x14ac:dyDescent="0.4">
-      <c r="F11" t="s">
+    <row r="41" spans="8:20" x14ac:dyDescent="0.4">
+      <c r="J41" t="s">
         <v>72</v>
       </c>
-      <c r="G11" s="36">
+      <c r="K41" s="36">
         <v>1</v>
       </c>
-      <c r="K11" t="s">
+      <c r="O41" t="s">
         <v>77</v>
       </c>
-      <c r="L11" s="36">
+      <c r="P41" s="36">
         <v>2</v>
       </c>
-      <c r="N11" t="s">
+      <c r="R41" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="4:16" x14ac:dyDescent="0.4">
-      <c r="F12" t="s">
+    <row r="42" spans="8:20" x14ac:dyDescent="0.4">
+      <c r="J42" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="36">
+      <c r="K42" s="36">
         <v>1</v>
       </c>
-      <c r="K12" t="s">
+      <c r="O42" t="s">
         <v>77</v>
       </c>
-      <c r="L12" s="36">
+      <c r="P42" s="36">
         <v>2</v>
       </c>
-      <c r="N12" t="s">
+      <c r="R42" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="4:16" x14ac:dyDescent="0.4">
-      <c r="E13" t="s">
+    <row r="43" spans="8:20" x14ac:dyDescent="0.4">
+      <c r="I43" t="s">
         <v>79</v>
       </c>
-      <c r="F13" t="s">
+      <c r="J43" t="s">
         <v>74</v>
       </c>
-      <c r="G13" s="36">
+      <c r="K43" s="36">
         <v>1</v>
       </c>
-      <c r="K13" t="s">
+      <c r="O43" t="s">
         <v>78</v>
       </c>
-      <c r="L13" s="36">
+      <c r="P43" s="36">
         <v>4</v>
       </c>
-      <c r="N13" t="s">
+      <c r="R43" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="4:16" x14ac:dyDescent="0.4">
-      <c r="G14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="N14" t="s">
+    <row r="44" spans="8:20" x14ac:dyDescent="0.4">
+      <c r="K44" s="36"/>
+      <c r="P44" s="36"/>
+      <c r="R44" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="4:16" x14ac:dyDescent="0.4">
-      <c r="E15" t="s">
+    <row r="45" spans="8:20" x14ac:dyDescent="0.4">
+      <c r="I45" t="s">
         <v>79</v>
       </c>
-      <c r="F15" t="s">
+      <c r="J45" t="s">
         <v>66</v>
       </c>
-      <c r="G15" s="36">
+      <c r="K45" s="36">
         <v>1</v>
       </c>
-      <c r="L15" s="36">
+      <c r="P45" s="36">
         <v>3</v>
       </c>
-      <c r="N15" t="s">
+      <c r="R45" t="s">
         <v>71</v>
       </c>
-      <c r="P15">
+      <c r="T45">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="4:16" x14ac:dyDescent="0.4">
-      <c r="E16" t="s">
+    <row r="46" spans="8:20" x14ac:dyDescent="0.4">
+      <c r="I46" t="s">
         <v>79</v>
       </c>
-      <c r="F16" t="s">
+      <c r="J46" t="s">
         <v>67</v>
       </c>
-      <c r="G16" s="36">
+      <c r="K46" s="36">
         <v>1</v>
       </c>
-      <c r="L16" s="36">
+      <c r="P46" s="36">
         <v>0.5</v>
       </c>
-      <c r="N16" t="s">
+      <c r="R46" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="6:14" x14ac:dyDescent="0.4">
-      <c r="N17" t="s">
+    <row r="47" spans="8:20" x14ac:dyDescent="0.4">
+      <c r="R47" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="6:14" x14ac:dyDescent="0.4">
-      <c r="F18" t="s">
+    <row r="48" spans="8:20" x14ac:dyDescent="0.4">
+      <c r="J48" t="s">
         <v>75</v>
       </c>
-      <c r="G18">
-        <f>SUM(G6:G16)</f>
+      <c r="K48">
+        <f>SUM(K36:K46)</f>
         <v>15</v>
       </c>
-      <c r="N18" t="s">
+      <c r="R48" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="6:14" x14ac:dyDescent="0.4">
-      <c r="G20">
+    <row r="50" spans="10:11" x14ac:dyDescent="0.4">
+      <c r="K50">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="6:14" x14ac:dyDescent="0.4">
-      <c r="F22" t="s">
+    <row r="52" spans="10:11" x14ac:dyDescent="0.4">
+      <c r="J52" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="6:14" x14ac:dyDescent="0.4">
-      <c r="F23" t="s">
+    <row r="53" spans="10:11" x14ac:dyDescent="0.4">
+      <c r="J53" t="s">
         <v>69</v>
       </c>
     </row>
